--- a/biology/Zoologie/Haliplus/Haliplus.xlsx
+++ b/biology/Zoologie/Haliplus/Haliplus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haliplus est un genre d'insectes coléoptères aquatiques de la famille des Haliplidae.
-De nouvelles espèces d'Haliplus ont été régulièrement trouvées dans le monde depuis le milieu du XXe siècle, dont l'une (décrite par Wells en 1989) vivant dans des sources chaudes du Nevada[1].
+De nouvelles espèces d'Haliplus ont été régulièrement trouvées dans le monde depuis le milieu du XXe siècle, dont l'une (décrite par Wells en 1989) vivant dans des sources chaudes du Nevada.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom haliple vient du grec ancien ἁλίπλους (halíplous), qui nage en mer ; bien que ces coléoptères vivent en eau douce.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (31 août 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (31 août 2014) :
 Haliplus allisonae
 Haliplus annulatus
 Haliplus apostolicus
@@ -604,7 +620,7 @@
 Haliplus vancouverensis
 Haliplus variomaculatus
 Haliplus wallisi
-Selon ITIS      (31 août 2014)[3] :
+Selon ITIS      (31 août 2014) :
 Haliplus allisonae Brigham
 Haliplus annulatus Roberts, 1913
 Haliplus apostolicus Wallis, 1933
@@ -663,7 +679,7 @@
 Haliplus vancouverensis Matheson, 1912
 Haliplus variomaculatus Brigham &amp; Sanderson
 Haliplus wallisi
-Selon NCBI  (30 octobre 2021)[4] :
+Selon NCBI  (30 octobre 2021) :
 Haliplus apicalis
 Haliplus basinotatus
 Haliplus confinis
